--- a/doc/04_機能一覧_チーム名.xlsx
+++ b/doc/04_機能一覧_チーム名.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\Documents\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{E2D050FD-71DA-43B6-B010-11A37A4842EB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ED5B29DD-3980-45BE-9CA5-9CC91925FC6C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="73" uniqueCount="46">
   <si>
     <t>プロジェクト名</t>
     <rPh sb="6" eb="7">
@@ -155,6 +155,112 @@
   </si>
   <si>
     <t>Sol-ty</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>未完了タスク表示機能（今日と前日までのタスク表示を分ける）</t>
+  </si>
+  <si>
+    <t>季節毎の背景を変化させる機能</t>
+  </si>
+  <si>
+    <t>選択日付のタスク登録機能</t>
+  </si>
+  <si>
+    <t>完了画面表示機能（完了した日付、締め切りの両方を表示）</t>
+  </si>
+  <si>
+    <t>カレンダー機能</t>
+  </si>
+  <si>
+    <t>実績表示機能</t>
+  </si>
+  <si>
+    <t>実績ポイント機能</t>
+  </si>
+  <si>
+    <t>音声ボイス機能</t>
+  </si>
+  <si>
+    <t>ログイン・ログアウト機能</t>
+  </si>
+  <si>
+    <t>ユーザー登録機能</t>
+  </si>
+  <si>
+    <t>設定機能</t>
+  </si>
+  <si>
+    <t>Webアプリ</t>
+  </si>
+  <si>
+    <t>バッチ</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>タスク機能</t>
+  </si>
+  <si>
+    <t>実績機能</t>
+  </si>
+  <si>
+    <t>ユーザー機能</t>
+  </si>
+  <si>
+    <t>設定機能</t>
+    <rPh sb="0" eb="4">
+      <t>セッテイキノウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>メニュー画面での未完了タスクの表示</t>
+  </si>
+  <si>
+    <t>季節毎に背景とロゴを変化させて表示</t>
+  </si>
+  <si>
+    <t>選択した日付にタスクを登録・削除できる</t>
+  </si>
+  <si>
+    <t>完了したタスク一覧表示</t>
+  </si>
+  <si>
+    <t>カレンダー表示、登録時のカレンダー表示</t>
+  </si>
+  <si>
+    <t>特定の条件を満たしたときに達成した実績を画面上部に表示する、解除した実績一覧を表示する</t>
+  </si>
+  <si>
+    <t>解除した実績の内容に応じてポイントがたまっていき、ポイントに応じて拡張性が上がる（壁紙）</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>日々の疲れを癒されるために音声機能を追加し一日のモチベーションを上げる</t>
+  </si>
+  <si>
+    <r>
+      <t>ID/Password</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF1D1C1D"/>
+        <rFont val="ＭＳ ゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>を入力してログイン、使用終了後にログアウト</t>
+    </r>
+  </si>
+  <si>
+    <t>初回利用時にユーザー登録をする</t>
+  </si>
+  <si>
+    <t>壁紙や音声切り替え、フォントサイズの設定などが切り替えられる設定画面</t>
+  </si>
+  <si>
+    <t>Java</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -162,7 +268,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -187,6 +293,26 @@
       <charset val="128"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="ＭＳ ゴシック"/>
+      <family val="3"/>
+      <charset val="128"/>
+    </font>
+    <font>
+      <sz val="10.5"/>
+      <color rgb="FF1D1C1D"/>
+      <name val="ＭＳ ゴシック"/>
+      <family val="3"/>
+      <charset val="128"/>
+    </font>
+    <font>
+      <sz val="10.5"/>
+      <color rgb="FF1D1C1D"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
   </fonts>
   <fills count="3">
     <fill>
@@ -202,7 +328,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="3">
+  <borders count="4">
     <border>
       <left/>
       <right/>
@@ -238,13 +364,28 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -274,6 +415,21 @@
     </xf>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -615,18 +771,20 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="B2:I36"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="H3" sqref="H3:I3"/>
+    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="H13" sqref="H13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="3.25" customWidth="1"/>
     <col min="2" max="2" width="6.75" customWidth="1"/>
-    <col min="3" max="5" width="12.625" customWidth="1"/>
-    <col min="6" max="6" width="19.5" customWidth="1"/>
+    <col min="3" max="3" width="12.625" customWidth="1"/>
+    <col min="4" max="4" width="16.125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="12.625" customWidth="1"/>
+    <col min="6" max="6" width="59.125" customWidth="1"/>
     <col min="7" max="7" width="12.875" customWidth="1"/>
-    <col min="8" max="8" width="33.875" style="1" customWidth="1"/>
+    <col min="8" max="8" width="38.25" style="1" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="2" spans="2:9" x14ac:dyDescent="0.15">
@@ -702,143 +860,255 @@
         <v>14</v>
       </c>
     </row>
-    <row r="8" spans="2:9" x14ac:dyDescent="0.15">
+    <row r="8" spans="2:9" ht="14.25" x14ac:dyDescent="0.15">
       <c r="B8" s="2">
         <v>1</v>
       </c>
-      <c r="C8" s="2"/>
-      <c r="D8" s="2"/>
+      <c r="C8" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="D8" s="10" t="s">
+        <v>30</v>
+      </c>
       <c r="E8" s="2"/>
-      <c r="F8" s="2"/>
+      <c r="F8" s="10" t="s">
+        <v>17</v>
+      </c>
       <c r="G8" s="2"/>
-      <c r="H8" s="3"/>
-      <c r="I8" s="2"/>
-    </row>
-    <row r="9" spans="2:9" x14ac:dyDescent="0.15">
+      <c r="H8" s="10" t="s">
+        <v>34</v>
+      </c>
+      <c r="I8" s="2" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="9" spans="2:9" ht="14.25" x14ac:dyDescent="0.15">
       <c r="B9" s="2">
         <v>2</v>
       </c>
-      <c r="C9" s="2"/>
-      <c r="D9" s="2"/>
+      <c r="C9" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="D9" s="10" t="s">
+        <v>30</v>
+      </c>
       <c r="E9" s="2"/>
-      <c r="F9" s="2"/>
+      <c r="F9" s="10" t="s">
+        <v>18</v>
+      </c>
       <c r="G9" s="2"/>
-      <c r="H9" s="3"/>
-      <c r="I9" s="2"/>
-    </row>
-    <row r="10" spans="2:9" x14ac:dyDescent="0.15">
+      <c r="H9" s="10" t="s">
+        <v>35</v>
+      </c>
+      <c r="I9" s="2" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="10" spans="2:9" ht="14.25" x14ac:dyDescent="0.15">
       <c r="B10" s="2">
         <v>3</v>
       </c>
-      <c r="C10" s="2"/>
-      <c r="D10" s="2"/>
+      <c r="C10" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="D10" s="10" t="s">
+        <v>30</v>
+      </c>
       <c r="E10" s="2"/>
-      <c r="F10" s="2"/>
+      <c r="F10" s="10" t="s">
+        <v>19</v>
+      </c>
       <c r="G10" s="2"/>
-      <c r="H10" s="3"/>
-      <c r="I10" s="2"/>
-    </row>
-    <row r="11" spans="2:9" x14ac:dyDescent="0.15">
+      <c r="H10" s="11" t="s">
+        <v>36</v>
+      </c>
+      <c r="I10" s="2" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="11" spans="2:9" ht="14.25" x14ac:dyDescent="0.15">
       <c r="B11" s="2">
         <v>4</v>
       </c>
-      <c r="C11" s="2"/>
-      <c r="D11" s="2"/>
+      <c r="C11" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="D11" s="10" t="s">
+        <v>30</v>
+      </c>
       <c r="E11" s="2"/>
-      <c r="F11" s="2"/>
+      <c r="F11" s="10" t="s">
+        <v>20</v>
+      </c>
       <c r="G11" s="2"/>
-      <c r="H11" s="3"/>
-      <c r="I11" s="2"/>
-    </row>
-    <row r="12" spans="2:9" x14ac:dyDescent="0.15">
+      <c r="H11" s="11" t="s">
+        <v>37</v>
+      </c>
+      <c r="I11" s="2" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="12" spans="2:9" ht="15" thickBot="1" x14ac:dyDescent="0.2">
       <c r="B12" s="2">
         <v>5</v>
       </c>
-      <c r="C12" s="2"/>
-      <c r="D12" s="2"/>
+      <c r="C12" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="D12" s="10" t="s">
+        <v>21</v>
+      </c>
       <c r="E12" s="2"/>
-      <c r="F12" s="2"/>
+      <c r="F12" s="10" t="s">
+        <v>21</v>
+      </c>
       <c r="G12" s="2"/>
-      <c r="H12" s="3"/>
-      <c r="I12" s="2"/>
-    </row>
-    <row r="13" spans="2:9" x14ac:dyDescent="0.15">
+      <c r="H12" s="11" t="s">
+        <v>38</v>
+      </c>
+      <c r="I12" s="2" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="13" spans="2:9" ht="39" thickBot="1" x14ac:dyDescent="0.2">
       <c r="B13" s="2">
         <v>6</v>
       </c>
-      <c r="C13" s="2"/>
-      <c r="D13" s="2"/>
+      <c r="C13" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="D13" s="10" t="s">
+        <v>31</v>
+      </c>
       <c r="E13" s="2"/>
-      <c r="F13" s="2"/>
+      <c r="F13" s="10" t="s">
+        <v>22</v>
+      </c>
       <c r="G13" s="2"/>
-      <c r="H13" s="3"/>
-      <c r="I13" s="2"/>
-    </row>
-    <row r="14" spans="2:9" x14ac:dyDescent="0.15">
+      <c r="H13" s="12" t="s">
+        <v>39</v>
+      </c>
+      <c r="I13" s="2" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="14" spans="2:9" ht="38.25" x14ac:dyDescent="0.15">
       <c r="B14" s="2">
         <v>7</v>
       </c>
-      <c r="C14" s="2"/>
-      <c r="D14" s="2"/>
+      <c r="C14" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="D14" s="10" t="s">
+        <v>31</v>
+      </c>
       <c r="E14" s="2"/>
-      <c r="F14" s="2"/>
+      <c r="F14" s="10" t="s">
+        <v>23</v>
+      </c>
       <c r="G14" s="2"/>
-      <c r="H14" s="3"/>
-      <c r="I14" s="2"/>
-    </row>
-    <row r="15" spans="2:9" x14ac:dyDescent="0.15">
+      <c r="H14" s="13" t="s">
+        <v>40</v>
+      </c>
+      <c r="I14" s="2" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="15" spans="2:9" ht="26.25" thickBot="1" x14ac:dyDescent="0.2">
       <c r="B15" s="2">
         <v>8</v>
       </c>
-      <c r="C15" s="2"/>
-      <c r="D15" s="2"/>
+      <c r="C15" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="D15" s="10" t="s">
+        <v>24</v>
+      </c>
       <c r="E15" s="2"/>
-      <c r="F15" s="2"/>
+      <c r="F15" s="11" t="s">
+        <v>24</v>
+      </c>
       <c r="G15" s="2"/>
-      <c r="H15" s="3"/>
-      <c r="I15" s="2"/>
-    </row>
-    <row r="16" spans="2:9" x14ac:dyDescent="0.15">
+      <c r="H15" s="13" t="s">
+        <v>41</v>
+      </c>
+      <c r="I15" s="2" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="16" spans="2:9" ht="27" thickBot="1" x14ac:dyDescent="0.2">
       <c r="B16" s="2">
         <v>9</v>
       </c>
-      <c r="C16" s="2"/>
-      <c r="D16" s="2"/>
+      <c r="C16" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="D16" s="10" t="s">
+        <v>32</v>
+      </c>
       <c r="E16" s="2"/>
-      <c r="F16" s="2"/>
+      <c r="F16" s="10" t="s">
+        <v>25</v>
+      </c>
       <c r="G16" s="2"/>
-      <c r="H16" s="3"/>
-      <c r="I16" s="2"/>
-    </row>
-    <row r="17" spans="2:9" x14ac:dyDescent="0.15">
+      <c r="H16" s="14" t="s">
+        <v>42</v>
+      </c>
+      <c r="I16" s="2" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="17" spans="2:9" ht="15" thickBot="1" x14ac:dyDescent="0.2">
       <c r="B17" s="2">
         <v>10</v>
       </c>
-      <c r="C17" s="2"/>
-      <c r="D17" s="2"/>
+      <c r="C17" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="D17" s="10" t="s">
+        <v>32</v>
+      </c>
       <c r="E17" s="2"/>
-      <c r="F17" s="2"/>
+      <c r="F17" s="10" t="s">
+        <v>26</v>
+      </c>
       <c r="G17" s="2"/>
-      <c r="H17" s="3"/>
-      <c r="I17" s="2"/>
-    </row>
-    <row r="18" spans="2:9" x14ac:dyDescent="0.15">
+      <c r="H17" s="11" t="s">
+        <v>43</v>
+      </c>
+      <c r="I17" s="2" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="18" spans="2:9" ht="26.25" thickBot="1" x14ac:dyDescent="0.2">
       <c r="B18" s="2">
         <v>11</v>
       </c>
-      <c r="C18" s="2"/>
-      <c r="D18" s="2"/>
+      <c r="C18" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="D18" s="2" t="s">
+        <v>33</v>
+      </c>
       <c r="E18" s="2"/>
-      <c r="F18" s="2"/>
+      <c r="F18" s="11" t="s">
+        <v>27</v>
+      </c>
       <c r="G18" s="2"/>
-      <c r="H18" s="3"/>
-      <c r="I18" s="2"/>
+      <c r="H18" s="12" t="s">
+        <v>44</v>
+      </c>
+      <c r="I18" s="2" t="s">
+        <v>45</v>
+      </c>
     </row>
     <row r="19" spans="2:9" x14ac:dyDescent="0.15">
       <c r="B19" s="2">
         <v>12</v>
       </c>
-      <c r="C19" s="2"/>
+      <c r="C19" s="2" t="s">
+        <v>29</v>
+      </c>
       <c r="D19" s="2"/>
       <c r="E19" s="2"/>
       <c r="F19" s="2"/>
